--- a/Analytics/SP1/RefereeFirstCard_sp1.xlsx
+++ b/Analytics/SP1/RefereeFirstCard_sp1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="42">
   <si>
     <t>Referee</t>
   </si>
@@ -88,27 +88,30 @@
     <t>Jorge Figueroa</t>
   </si>
   <si>
+    <t>José Luis Munuera</t>
+  </si>
+  <si>
     <t>Jesús Gil</t>
   </si>
   <si>
-    <t>José Luis Munuera</t>
+    <t>Mateo Busquets</t>
+  </si>
+  <si>
+    <t>Guillermo Cuadra</t>
+  </si>
+  <si>
+    <t>Víctor García</t>
+  </si>
+  <si>
+    <t>Juan Pulido</t>
   </si>
   <si>
     <t>Juan Martínez</t>
   </si>
   <si>
-    <t>Juan Pulido</t>
-  </si>
-  <si>
-    <t>Mateo Busquets</t>
-  </si>
-  <si>
     <t>Javier Villanueva</t>
   </si>
   <si>
-    <t>Guillermo Cuadra</t>
-  </si>
-  <si>
     <t>Mario Melero</t>
   </si>
   <si>
@@ -118,15 +121,15 @@
     <t>Alejandro Muñíz</t>
   </si>
   <si>
-    <t>Víctor García</t>
+    <t>Javier Alberola</t>
+  </si>
+  <si>
+    <t>Ricardo de Burgos</t>
   </si>
   <si>
     <t>Francisco Hernández</t>
   </si>
   <si>
-    <t>Ricardo de Burgos</t>
-  </si>
-  <si>
     <t>José Sánchez</t>
   </si>
   <si>
@@ -136,13 +139,10 @@
     <t>Pablo González</t>
   </si>
   <si>
+    <t>Isidro Díaz de Mera</t>
+  </si>
+  <si>
     <t>Miguel Ángel Ortiz Arias</t>
-  </si>
-  <si>
-    <t>Isidro Díaz de Mera</t>
-  </si>
-  <si>
-    <t>Alberola Rojas</t>
   </si>
 </sst>
 </file>
@@ -221,7 +221,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="4">
@@ -243,7 +243,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="6">
@@ -276,7 +276,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="9">
@@ -287,7 +287,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="10">
@@ -397,7 +397,7 @@
         <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="20">
@@ -449,7 +449,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C2" t="n">
         <v>10.0</v>
@@ -460,10 +460,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C3" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="4">
@@ -471,10 +471,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C4" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="5">
@@ -482,10 +482,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C5" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="6">
@@ -493,10 +493,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C6" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="7">
@@ -504,10 +504,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C7" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="8">
@@ -515,10 +515,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C8" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="9">
@@ -526,10 +526,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="10">
@@ -537,10 +537,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C10" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="11">
@@ -548,7 +548,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -559,10 +559,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C12" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="13">
@@ -570,10 +570,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C13" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="14">
@@ -581,10 +581,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C14" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="15">
@@ -592,7 +592,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" t="n">
         <v>4.0</v>
@@ -603,7 +603,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -614,7 +614,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="n">
         <v>4.0</v>
@@ -625,7 +625,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C18" t="n">
         <v>4.0</v>
@@ -636,7 +636,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C19" t="n">
         <v>4.0</v>
@@ -647,7 +647,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C20" t="n">
         <v>3.0</v>
@@ -680,10 +680,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="3">
@@ -691,10 +691,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="4">
@@ -702,7 +702,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C4" t="n">
         <v>7.0</v>
@@ -713,10 +713,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C5" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="6">
@@ -724,10 +724,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C6" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="7">
@@ -735,7 +735,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="n">
         <v>6.0</v>
@@ -746,7 +746,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C8" t="n">
         <v>6.0</v>
@@ -757,10 +757,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C9" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="10">
@@ -768,10 +768,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C10" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="11">
@@ -779,10 +779,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C11" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="12">
@@ -790,10 +790,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="13">
@@ -801,10 +801,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C13" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="14">
@@ -812,10 +812,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C14" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="15">
@@ -823,7 +823,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C15" t="n">
         <v>4.0</v>
@@ -837,7 +837,7 @@
         <v>22</v>
       </c>
       <c r="C16" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="17">
@@ -845,10 +845,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="18">
@@ -856,10 +856,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C18" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="19">
@@ -867,10 +867,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C19" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="20">
@@ -878,10 +878,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C20" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="21">
@@ -889,10 +889,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C21" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
   </sheetData>
@@ -922,7 +922,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C2" t="n">
         <v>4.0</v>
@@ -933,7 +933,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" t="n">
         <v>4.0</v>
@@ -944,7 +944,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -955,10 +955,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="6">
@@ -966,10 +966,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C6" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="7">
@@ -977,10 +977,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="8">
@@ -988,7 +988,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C8" t="n">
         <v>3.0</v>
@@ -999,7 +999,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C9" t="n">
         <v>3.0</v>
@@ -1010,7 +1010,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" t="n">
         <v>3.0</v>
@@ -1024,7 +1024,7 @@
         <v>27</v>
       </c>
       <c r="C11" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="12">
@@ -1032,10 +1032,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="13">
@@ -1043,10 +1043,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C13" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="14">
@@ -1054,10 +1054,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="15">
@@ -1065,10 +1065,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C15" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="16">
@@ -1076,10 +1076,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C16" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="17">
@@ -1087,10 +1087,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="18">
@@ -1098,10 +1098,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C18" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="19">
@@ -1109,10 +1109,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C19" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="20">
@@ -1120,7 +1120,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" t="n">
         <v>1.0</v>
@@ -1153,10 +1153,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C2" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="3">
@@ -1164,10 +1164,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -1175,7 +1175,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -1186,7 +1186,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -1197,7 +1197,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -1208,7 +1208,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -1219,7 +1219,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C8" t="n">
         <v>2.0</v>
@@ -1230,7 +1230,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -1241,10 +1241,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
@@ -1252,10 +1252,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
@@ -1263,10 +1263,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
@@ -1274,7 +1274,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C13" t="n">
         <v>1.0</v>
@@ -1285,7 +1285,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C14" t="n">
         <v>1.0</v>
@@ -1296,7 +1296,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -1307,9 +1307,42 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C16" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1340,10 +1373,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -1351,10 +1384,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -1362,10 +1395,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -1373,10 +1406,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -1384,10 +1417,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -1395,9 +1428,53 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
         <v>38</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="n">
         <v>1.0</v>
       </c>
     </row>

--- a/Analytics/SP1/RefereeFirstCard_sp1.xlsx
+++ b/Analytics/SP1/RefereeFirstCard_sp1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="40">
   <si>
     <t>Referee</t>
   </si>
@@ -61,6 +61,39 @@
     <t>12</t>
   </si>
   <si>
+    <t>Alejandro Muñíz</t>
+  </si>
+  <si>
+    <t>José Luis Munuera</t>
+  </si>
+  <si>
+    <t>Jesús Gil</t>
+  </si>
+  <si>
+    <t>Pablo González</t>
+  </si>
+  <si>
+    <t>Juan Martínez</t>
+  </si>
+  <si>
+    <t>Juan Pulido</t>
+  </si>
+  <si>
+    <t>Isidro Díaz de Mera</t>
+  </si>
+  <si>
+    <t>Alejandro Hernández</t>
+  </si>
+  <si>
+    <t>César Soto</t>
+  </si>
+  <si>
+    <t>Guillermo Cuadra</t>
+  </si>
+  <si>
+    <t>Mateo Busquets</t>
+  </si>
+  <si>
     <t>13</t>
   </si>
   <si>
@@ -76,73 +109,34 @@
     <t>17</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Jorge Figueroa</t>
-  </si>
-  <si>
-    <t>José Luis Munuera</t>
-  </si>
-  <si>
-    <t>Jesús Gil</t>
-  </si>
-  <si>
-    <t>Mateo Busquets</t>
-  </si>
-  <si>
-    <t>Guillermo Cuadra</t>
+    <t>Alejandro Quintero</t>
   </si>
   <si>
     <t>Víctor García</t>
   </si>
   <si>
-    <t>Juan Pulido</t>
-  </si>
-  <si>
-    <t>Juan Martínez</t>
-  </si>
-  <si>
-    <t>Javier Villanueva</t>
-  </si>
-  <si>
     <t>Mario Melero</t>
   </si>
   <si>
-    <t>César Soto</t>
-  </si>
-  <si>
-    <t>Alejandro Muñíz</t>
+    <t>Adrián Cordero</t>
+  </si>
+  <si>
+    <t>Ricardo de Burgos</t>
+  </si>
+  <si>
+    <t>José Sánchez</t>
+  </si>
+  <si>
+    <t>Miguel Ángel Ortiz Arias</t>
+  </si>
+  <si>
+    <t>Jose Maria Sánchez</t>
   </si>
   <si>
     <t>Javier Alberola</t>
   </si>
   <si>
-    <t>Ricardo de Burgos</t>
-  </si>
-  <si>
     <t>Francisco Hernández</t>
-  </si>
-  <si>
-    <t>José Sánchez</t>
-  </si>
-  <si>
-    <t>Alejandro Hernández</t>
-  </si>
-  <si>
-    <t>Pablo González</t>
-  </si>
-  <si>
-    <t>Isidro Díaz de Mera</t>
-  </si>
-  <si>
-    <t>Miguel Ángel Ortiz Arias</t>
   </si>
 </sst>
 </file>
@@ -206,11 +200,11 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>22</v>
+      <c r="B2" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C2" t="n">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -218,10 +212,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C3" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -229,10 +223,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -240,10 +234,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C5" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -251,10 +245,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C6" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -262,10 +256,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C7" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -273,10 +267,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C8" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -284,10 +278,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C9" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -295,10 +289,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C10" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
@@ -306,10 +300,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C11" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
@@ -317,10 +311,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C12" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
@@ -328,98 +322,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C13" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -448,11 +354,11 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>28</v>
+      <c r="B2" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C2" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="3">
@@ -460,10 +366,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C3" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -471,10 +377,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C4" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -482,10 +388,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -493,10 +399,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="7">
@@ -504,10 +410,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C7" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
@@ -515,10 +421,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C8" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="9">
@@ -526,10 +432,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C9" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -537,10 +443,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C10" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
@@ -548,10 +454,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
@@ -559,10 +465,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C12" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
@@ -570,87 +476,65 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C13" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C14" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C15" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C18" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -679,11 +563,11 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>41</v>
+      <c r="B2" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C2" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="3">
@@ -691,10 +575,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -702,10 +586,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C4" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -716,7 +600,7 @@
         <v>37</v>
       </c>
       <c r="C5" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -724,10 +608,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -735,10 +619,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C7" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -746,10 +630,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
@@ -757,10 +641,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C9" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
@@ -771,7 +655,7 @@
         <v>23</v>
       </c>
       <c r="C10" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
@@ -779,10 +663,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
@@ -790,10 +674,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C12" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
@@ -801,98 +685,54 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C13" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
       <c r="C14" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C15" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
       </c>
       <c r="C16" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C17" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -921,11 +761,11 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>30</v>
+      <c r="B2" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C2" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="3">
@@ -933,10 +773,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -944,10 +784,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -955,10 +795,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -966,10 +806,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -977,10 +817,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C7" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -988,10 +828,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C8" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -999,10 +839,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C9" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -1010,10 +850,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C10" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
@@ -1021,10 +861,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C11" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
@@ -1035,7 +875,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
@@ -1043,86 +883,9 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C13" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1152,11 +915,11 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>39</v>
+      <c r="B2" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C2" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -1167,7 +930,7 @@
         <v>34</v>
       </c>
       <c r="C3" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -1175,10 +938,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -1186,10 +949,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -1197,10 +960,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -1208,10 +971,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C7" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -1219,10 +982,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C8" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,119 +993,9 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C9" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1372,11 +1025,11 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>35</v>
+      <c r="B2" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -1384,10 +1037,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C3" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -1395,10 +1048,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -1406,10 +1059,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -1417,10 +1070,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -1428,53 +1081,9 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" t="n">
         <v>1.0</v>
       </c>
     </row>

--- a/Analytics/SP1/RefereeFirstCard_sp1.xlsx
+++ b/Analytics/SP1/RefereeFirstCard_sp1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="44">
   <si>
     <t>Referee</t>
   </si>
@@ -61,18 +61,36 @@
     <t>12</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>César Soto</t>
+  </si>
+  <si>
+    <t>Mateo Busquets</t>
+  </si>
+  <si>
+    <t>Jesús Gil</t>
+  </si>
+  <si>
+    <t>Alejandro Hernández</t>
+  </si>
+  <si>
     <t>Alejandro Muñíz</t>
   </si>
   <si>
     <t>José Luis Munuera</t>
   </si>
   <si>
-    <t>Jesús Gil</t>
-  </si>
-  <si>
     <t>Pablo González</t>
   </si>
   <si>
+    <t>Francisco Hernández</t>
+  </si>
+  <si>
     <t>Juan Martínez</t>
   </si>
   <si>
@@ -82,24 +100,12 @@
     <t>Isidro Díaz de Mera</t>
   </si>
   <si>
-    <t>Alejandro Hernández</t>
-  </si>
-  <si>
-    <t>César Soto</t>
+    <t>Jose Maria Sánchez</t>
   </si>
   <si>
     <t>Guillermo Cuadra</t>
   </si>
   <si>
-    <t>Mateo Busquets</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
@@ -109,34 +115,40 @@
     <t>17</t>
   </si>
   <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>Alejandro Quintero</t>
   </si>
   <si>
     <t>Víctor García</t>
   </si>
   <si>
+    <t>Miguel Ángel Ortiz Arias</t>
+  </si>
+  <si>
+    <t>Adrián Cordero</t>
+  </si>
+  <si>
+    <t>Ricardo de Burgos</t>
+  </si>
+  <si>
     <t>Mario Melero</t>
   </si>
   <si>
-    <t>Adrián Cordero</t>
-  </si>
-  <si>
-    <t>Ricardo de Burgos</t>
-  </si>
-  <si>
     <t>José Sánchez</t>
   </si>
   <si>
-    <t>Miguel Ángel Ortiz Arias</t>
-  </si>
-  <si>
-    <t>Jose Maria Sánchez</t>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
   </si>
   <si>
     <t>Javier Alberola</t>
-  </si>
-  <si>
-    <t>Francisco Hernández</t>
   </si>
 </sst>
 </file>
@@ -212,10 +224,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -223,10 +235,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -234,10 +246,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -245,7 +257,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -256,10 +268,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -267,10 +279,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
@@ -278,10 +290,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
@@ -289,7 +301,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10" t="n">
         <v>1.0</v>
@@ -300,7 +312,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" t="n">
         <v>1.0</v>
@@ -311,7 +323,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -322,9 +334,31 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -366,10 +400,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
@@ -377,10 +411,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
@@ -388,7 +422,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
@@ -399,7 +433,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C6" t="n">
         <v>3.0</v>
@@ -410,7 +444,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C7" t="n">
         <v>3.0</v>
@@ -421,7 +455,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" t="n">
         <v>3.0</v>
@@ -432,10 +466,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="10">
@@ -443,10 +477,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="11">
@@ -454,10 +488,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
@@ -465,10 +499,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C12" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
@@ -476,40 +510,40 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C13" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C14" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C15" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
         <v>27</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
       </c>
       <c r="C16" t="n">
         <v>1.0</v>
@@ -517,10 +551,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C17" t="n">
         <v>1.0</v>
@@ -528,12 +562,34 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C18" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -575,7 +631,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C3" t="n">
         <v>3.0</v>
@@ -586,10 +642,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -597,10 +653,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -608,10 +664,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="7">
@@ -619,10 +675,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C7" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
@@ -630,7 +686,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C8" t="n">
         <v>2.0</v>
@@ -641,7 +697,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -652,7 +708,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C10" t="n">
         <v>2.0</v>
@@ -663,10 +719,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
@@ -674,10 +730,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
@@ -685,37 +741,37 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C14" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C15" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
@@ -726,12 +782,67 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C17" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -773,10 +884,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -784,10 +895,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -795,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -806,7 +917,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -817,7 +928,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -828,10 +939,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
@@ -839,10 +950,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
@@ -850,10 +961,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
@@ -861,10 +972,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
@@ -872,7 +983,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -883,9 +994,53 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
         <v>36</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C17" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -930,7 +1085,7 @@
         <v>34</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -938,10 +1093,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -949,7 +1104,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C5" t="n">
         <v>1.0</v>
@@ -960,7 +1115,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -971,7 +1126,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -982,7 +1137,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
@@ -993,9 +1148,42 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1037,7 +1225,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -1048,7 +1236,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -1059,7 +1247,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C5" t="n">
         <v>1.0</v>
@@ -1081,7 +1269,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
